--- a/PangkalanData/public/Template/Template Anggaran.xlsx
+++ b/PangkalanData/public/Template/Template Anggaran.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Unit</t>
   </si>
@@ -24,9 +24,6 @@
   <si>
     <t>Nilai Anggaran</t>
   </si>
-  <si>
-    <t>Balai Bahasa Jawa Tengah</t>
-  </si>
 </sst>
 </file>
 
@@ -34,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -53,6 +50,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -62,21 +88,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,6 +105,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,7 +128,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,21 +144,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,17 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,43 +173,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,25 +425,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -467,6 +455,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -474,21 +486,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,148 +525,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1027,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1052,9 +1049,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/PangkalanData/public/Template/Template Anggaran.xlsx
+++ b/PangkalanData/public/Template/Template Anggaran.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Unit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Tahun Anggaran</t>
   </si>
@@ -30,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -51,6 +48,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -64,6 +76,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -73,7 +93,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,32 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,24 +123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,8 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,30 +154,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,187 +213,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +423,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -436,6 +463,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,37 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,175 +519,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,12 +1024,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
     <col min="2" max="3" width="17.5648148148148" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1043,13 +1040,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
+    <row r="2" spans="2:4">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/PangkalanData/public/Template/Template Anggaran.xlsx
+++ b/PangkalanData/public/Template/Template Anggaran.xlsx
@@ -42,12 +42,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -79,19 +79,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -100,9 +101,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,13 +133,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -154,14 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -170,16 +155,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +187,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,21 +202,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +242,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,43 +350,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,121 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +497,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,153 +587,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,15 +757,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,7 +777,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1161,7 +1161,6 @@
       <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:5">

--- a/PangkalanData/public/Template/Template Anggaran.xlsx
+++ b/PangkalanData/public/Template/Template Anggaran.xlsx
@@ -42,12 +42,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -72,6 +72,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -79,7 +86,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,14 +94,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -102,25 +155,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,32 +177,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,51 +210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,41 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,16 +541,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,153 +574,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,15 +757,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,7 +777,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1161,6 +1161,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:5">
@@ -1295,12 +1296,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D1:D2;E1:E2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="G17:G18;H19:H1048576">
-      <formula1>$A$17:$A$19</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D3:D18;E3:E18;E19:E1048576;F19:F1048576">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Berupa Angka" sqref="D1:D2 E1:E2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Berupa Angka" sqref="D3:D1048576 E3:E1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
